--- a/docs/技能倍率标准.xlsx
+++ b/docs/技能倍率标准.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="扒数据" sheetId="1" r:id="rId1"/>
+    <sheet name="技能设计" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>SP</t>
   </si>
@@ -92,6 +92,90 @@
   </si>
   <si>
     <t>雷tama</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>技能位</t>
+  </si>
+  <si>
+    <t>特殊动作</t>
+  </si>
+  <si>
+    <t>单伤</t>
+  </si>
+  <si>
+    <t>单DP</t>
+  </si>
+  <si>
+    <t>单HP</t>
+  </si>
+  <si>
+    <t>群伤</t>
+  </si>
+  <si>
+    <t>群DP</t>
+  </si>
+  <si>
+    <t>群HP</t>
+  </si>
+  <si>
+    <t>群治疗</t>
+  </si>
+  <si>
+    <t>复活</t>
+  </si>
+  <si>
+    <t>群缓回</t>
+  </si>
+  <si>
+    <t>小加攻</t>
+  </si>
+  <si>
+    <t>大加攻</t>
+  </si>
+  <si>
+    <t>初始月歌</t>
+  </si>
+  <si>
+    <t>对空长按</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>对敌右键</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>对友右键</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>和泉流星</t>
+  </si>
+  <si>
+    <t>对空长按（潜行）</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>国见原皮</t>
+  </si>
+  <si>
+    <t>（重复潜行）</t>
+  </si>
+  <si>
+    <t>夏目S·彼岸的刽子手</t>
+  </si>
+  <si>
+    <t>中</t>
   </si>
 </sst>
 </file>
@@ -725,14 +809,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -793,6 +883,11 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -800,6 +895,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N16" totalsRowShown="0">
+  <autoFilter ref="A1:N16"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="列1" dataDxfId="0"/>
+    <tableColumn id="2" name="技能位"/>
+    <tableColumn id="3" name="特殊动作"/>
+    <tableColumn id="4" name="单伤"/>
+    <tableColumn id="5" name="单DP"/>
+    <tableColumn id="6" name="单HP"/>
+    <tableColumn id="7" name="群伤"/>
+    <tableColumn id="8" name="群DP"/>
+    <tableColumn id="9" name="群HP"/>
+    <tableColumn id="10" name="群治疗"/>
+    <tableColumn id="11" name="复活"/>
+    <tableColumn id="12" name="群缓回"/>
+    <tableColumn id="13" name="小加攻"/>
+    <tableColumn id="14" name="大加攻"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,7 +1172,7 @@
   <sheetPr/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -1100,7 +1218,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>259</v>
       </c>
       <c r="F2" s="2">
@@ -1115,7 +1233,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>286</v>
       </c>
       <c r="F3" s="2">
@@ -1130,7 +1248,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>231</v>
       </c>
       <c r="F4" s="2">
@@ -1145,7 +1263,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>294</v>
       </c>
       <c r="F5" s="2">
@@ -1160,7 +1278,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>375</v>
       </c>
       <c r="F6" s="2">
@@ -1462,10 +1580,10 @@
       <c r="D17">
         <v>150</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>2175</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="5">
         <v>10875</v>
       </c>
       <c r="I17" t="s">
@@ -1508,7 +1626,7 @@
       <c r="E19" s="2">
         <v>2454</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
         <v>12270</v>
       </c>
     </row>
@@ -1525,7 +1643,7 @@
       <c r="E20" s="2">
         <v>2751</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6">
         <v>13755</v>
       </c>
     </row>
@@ -1542,7 +1660,7 @@
       <c r="E21" s="2">
         <v>3066</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="6">
         <v>15330</v>
       </c>
     </row>
@@ -1835,17 +1953,205 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/docs/技能倍率标准.xlsx
+++ b/docs/技能倍率标准.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>SP</t>
   </si>
@@ -139,27 +139,30 @@
     <t>初始月歌</t>
   </si>
   <si>
+    <t>对空长按(潜行）</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>对敌右键</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>对友右键</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>和泉流星</t>
+  </si>
+  <si>
     <t>对空长按</t>
   </si>
   <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>对敌右键</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>对友右键</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>和泉流星</t>
-  </si>
-  <si>
     <t>对空长按（潜行）</t>
   </si>
   <si>
@@ -176,6 +179,12 @@
   </si>
   <si>
     <t>中</t>
+  </si>
+  <si>
+    <t>东城司</t>
+  </si>
+  <si>
+    <t>全</t>
   </si>
 </sst>
 </file>
@@ -898,8 +907,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N16" totalsRowShown="0">
-  <autoFilter ref="A1:N16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N20" totalsRowShown="0">
+  <autoFilter ref="A1:N20"/>
   <tableColumns count="14">
     <tableColumn id="1" name="列1" dataDxfId="0"/>
     <tableColumn id="2" name="技能位"/>
@@ -1953,10 +1962,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2042,7 +2051,7 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
@@ -2050,10 +2059,10 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -2074,10 +2083,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
         <v>39</v>
@@ -2088,7 +2097,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
@@ -2107,7 +2116,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
         <v>37</v>
@@ -2115,21 +2124,21 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -2143,6 +2152,38 @@
       </c>
       <c r="C16" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
